--- a/grb_map/2_supermarket_map/supermarket-crawler/offical_spider/china_offical_markets_walmat_format.xlsx
+++ b/grb_map/2_supermarket_map/supermarket-crawler/offical_spider/china_offical_markets_walmat_format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14640" windowHeight="7670" activeTab="2"/>
+    <workbookView windowWidth="18540" windowHeight="7260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="china_offical_markets_walmat_fo" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149">
   <si>
     <t>品牌</t>
   </si>
@@ -3451,6 +3451,18 @@
   </si>
   <si>
     <t>云南省文山壮族苗族自治州</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>门店数</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>安徽</t>
   </si>
 </sst>
 </file>
@@ -3460,10 +3472,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3473,14 +3485,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3494,23 +3544,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3548,8 +3613,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3562,61 +3628,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3625,13 +3644,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3643,19 +3674,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3667,37 +3752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3715,61 +3770,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3787,25 +3806,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3816,21 +3841,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3858,6 +3868,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3873,11 +3894,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3885,8 +3912,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3908,11 +3935,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3924,10 +3949,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3936,139 +3961,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4400,8 +4431,8 @@
   <sheetPr/>
   <dimension ref="A1:E407"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -13409,1151 +13440,1273 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="12.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="26.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="13.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" customFormat="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
         <v>321</v>
       </c>
-      <c r="B1">
+      <c r="C2">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="D2">
+        <f>RANK(C2,C:C)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
         <v>794</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">RANK(C3,C:C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
         <v>249</v>
       </c>
-      <c r="B3">
+      <c r="C4">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
         <v>176</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
         <v>481</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
         <v>856</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
         <v>966</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
         <v>77</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
         <v>113</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
         <v>734</v>
       </c>
-      <c r="B12">
+      <c r="C13">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
         <v>160</v>
       </c>
-      <c r="B13">
+      <c r="C14">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
         <v>281</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
         <v>1063</v>
       </c>
-      <c r="B15">
+      <c r="C16">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
         <v>206</v>
       </c>
-      <c r="B16">
+      <c r="C17">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="D17">
+        <f>RANK(C17,C:C)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
         <v>645</v>
       </c>
-      <c r="B17">
+      <c r="C18">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="D18">
+        <f>RANK(C18,C:C)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
         <v>910</v>
       </c>
-      <c r="B18">
+      <c r="C19">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="D19">
+        <f>RANK(C19,C:C)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
         <v>1118</v>
       </c>
-      <c r="B19">
+      <c r="C20">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="D20">
+        <f>RANK(C20,C:C)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
         <v>371</v>
       </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D26" si="1">RANK(C21,C:C)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
         <v>399</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
         <v>672</v>
       </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
         <v>762</v>
       </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
         <v>1075</v>
       </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
         <v>1055</v>
       </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
         <v>103</v>
       </c>
-      <c r="B26">
+      <c r="C27">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
         <v>447</v>
       </c>
-      <c r="B27">
+      <c r="C28">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
         <v>581</v>
       </c>
-      <c r="B28">
+      <c r="C29">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
         <v>720</v>
       </c>
-      <c r="B29">
+      <c r="C30">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
         <v>1083</v>
       </c>
-      <c r="B30">
+      <c r="C31">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
         <v>140</v>
       </c>
-      <c r="B31">
+      <c r="C32">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
         <v>224</v>
       </c>
-      <c r="B32">
+      <c r="C33">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
         <v>553</v>
       </c>
-      <c r="B33">
+      <c r="C34">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
         <v>567</v>
       </c>
-      <c r="B34">
+      <c r="C35">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
         <v>630</v>
       </c>
-      <c r="B35">
+      <c r="C36">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
         <v>958</v>
       </c>
-      <c r="B36">
+      <c r="C37">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
         <v>1141</v>
       </c>
-      <c r="B37">
+      <c r="C38">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
         <v>1000</v>
       </c>
-      <c r="B38">
+      <c r="C39">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
         <v>131</v>
       </c>
-      <c r="B39">
+      <c r="C40">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
         <v>301</v>
       </c>
-      <c r="B40">
+      <c r="C41">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
         <v>242</v>
       </c>
-      <c r="B41">
+      <c r="C42">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
         <v>232</v>
       </c>
-      <c r="B42">
+      <c r="C43">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
         <v>415</v>
       </c>
-      <c r="B43">
+      <c r="C44">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
         <v>425</v>
       </c>
-      <c r="B44">
+      <c r="C45">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
         <v>536</v>
       </c>
-      <c r="B45">
+      <c r="C46">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
         <v>511</v>
       </c>
-      <c r="B46">
+      <c r="C47">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
         <v>532</v>
       </c>
-      <c r="B47">
+      <c r="C48">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
         <v>519</v>
       </c>
-      <c r="B48">
+      <c r="C49">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
         <v>575</v>
       </c>
-      <c r="B49">
+      <c r="C50">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
         <v>597</v>
       </c>
-      <c r="B50">
+      <c r="C51">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
         <v>663</v>
       </c>
-      <c r="B51">
+      <c r="C52">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
         <v>709</v>
       </c>
-      <c r="B52">
+      <c r="C53">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
         <v>752</v>
       </c>
-      <c r="B53">
+      <c r="C54">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
         <v>830</v>
       </c>
-      <c r="B54">
+      <c r="C55">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
         <v>885</v>
       </c>
-      <c r="B55">
+      <c r="C56">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
         <v>893</v>
       </c>
-      <c r="B56">
+      <c r="C57">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
         <v>920</v>
       </c>
-      <c r="B57">
+      <c r="C58">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
         <v>904</v>
       </c>
-      <c r="B58">
+      <c r="C59">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
         <v>914</v>
       </c>
-      <c r="B59">
+      <c r="C60">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
         <v>1142</v>
       </c>
-      <c r="B60">
+      <c r="C61">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
         <v>1140</v>
       </c>
-      <c r="B61">
+      <c r="C62">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
         <v>1101</v>
       </c>
-      <c r="B62">
+      <c r="C63">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B64" t="s">
         <v>21</v>
       </c>
-      <c r="B63">
+      <c r="C64">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="2"/>
+      <c r="B65" t="s">
         <v>17</v>
       </c>
-      <c r="B64">
+      <c r="C65">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="2"/>
+      <c r="B66" t="s">
         <v>25</v>
       </c>
-      <c r="B65">
+      <c r="C66">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="2"/>
+      <c r="B67" t="s">
         <v>13</v>
       </c>
-      <c r="B66">
+      <c r="C67">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="2"/>
+      <c r="B68" t="s">
         <v>9</v>
       </c>
-      <c r="B67">
+      <c r="C68">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
         <v>147</v>
       </c>
-      <c r="B68">
+      <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
         <v>99</v>
       </c>
-      <c r="B69">
+      <c r="C70">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
         <v>317</v>
       </c>
-      <c r="B70">
+      <c r="C71">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
         <v>216</v>
       </c>
-      <c r="B71">
+      <c r="C72">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
         <v>297</v>
       </c>
-      <c r="B72">
+      <c r="C73">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
         <v>220</v>
       </c>
-      <c r="B73">
+      <c r="C74">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
         <v>307</v>
       </c>
-      <c r="B74">
+      <c r="C75">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
         <v>238</v>
       </c>
-      <c r="B75">
+      <c r="C76">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+    <row r="77" spans="2:3">
+      <c r="B77" t="s">
         <v>383</v>
       </c>
-      <c r="B76">
+      <c r="C77">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
         <v>391</v>
       </c>
-      <c r="B77">
+      <c r="C78">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
         <v>387</v>
       </c>
-      <c r="B78">
+      <c r="C79">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
         <v>395</v>
       </c>
-      <c r="B79">
+      <c r="C80">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
         <v>421</v>
       </c>
-      <c r="B80">
+      <c r="C81">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
         <v>411</v>
       </c>
-      <c r="B81">
+      <c r="C82">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
         <v>429</v>
       </c>
-      <c r="B82">
+      <c r="C83">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
         <v>433</v>
       </c>
-      <c r="B83">
+      <c r="C84">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
         <v>437</v>
       </c>
-      <c r="B84">
+      <c r="C85">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
         <v>440</v>
       </c>
-      <c r="B85">
+      <c r="C86">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
         <v>461</v>
       </c>
-      <c r="B86">
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
         <v>477</v>
       </c>
-      <c r="B87">
+      <c r="C88">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
         <v>469</v>
       </c>
-      <c r="B88">
+      <c r="C89">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
         <v>473</v>
       </c>
-      <c r="B89">
+      <c r="C90">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
         <v>465</v>
       </c>
-      <c r="B90">
+      <c r="C91">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
         <v>457</v>
       </c>
-      <c r="B91">
+      <c r="C92">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
         <v>528</v>
       </c>
-      <c r="B92">
+      <c r="C93">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
         <v>525</v>
       </c>
-      <c r="B93">
+      <c r="C94">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
         <v>546</v>
       </c>
-      <c r="B94">
+      <c r="C95">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
         <v>560</v>
       </c>
-      <c r="B95">
+      <c r="C96">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
         <v>515</v>
       </c>
-      <c r="B96">
+      <c r="C97">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
         <v>589</v>
       </c>
-      <c r="B97">
+      <c r="C98">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
         <v>593</v>
       </c>
-      <c r="B98">
+      <c r="C99">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
         <v>730</v>
       </c>
-      <c r="B99">
+      <c r="C100">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
         <v>622</v>
       </c>
-      <c r="B100">
+      <c r="C101">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+    <row r="102" spans="2:3">
+      <c r="B102" t="s">
         <v>659</v>
       </c>
-      <c r="B101">
+      <c r="C102">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+    <row r="103" spans="2:3">
+      <c r="B103" t="s">
         <v>641</v>
       </c>
-      <c r="B102">
+      <c r="C103">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
         <v>626</v>
       </c>
-      <c r="B103">
+      <c r="C104">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
         <v>634</v>
       </c>
-      <c r="B104">
+      <c r="C105">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
         <v>697</v>
       </c>
-      <c r="B105">
+      <c r="C106">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+    <row r="107" spans="2:3">
+      <c r="B107" t="s">
         <v>713</v>
       </c>
-      <c r="B106">
+      <c r="C107">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+    <row r="108" spans="2:3">
+      <c r="B108" t="s">
         <v>685</v>
       </c>
-      <c r="B107">
+      <c r="C108">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+    <row r="109" spans="2:3">
+      <c r="B109" t="s">
         <v>689</v>
       </c>
-      <c r="B108">
+      <c r="C109">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+    <row r="110" spans="2:3">
+      <c r="B110" t="s">
         <v>705</v>
       </c>
-      <c r="B109">
+      <c r="C110">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+    <row r="111" spans="2:3">
+      <c r="B111" t="s">
         <v>701</v>
       </c>
-      <c r="B110">
+      <c r="C111">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+    <row r="112" spans="2:3">
+      <c r="B112" t="s">
         <v>693</v>
       </c>
-      <c r="B111">
+      <c r="C112">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
         <v>758</v>
       </c>
-      <c r="B112">
+      <c r="C113">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+    <row r="114" spans="2:3">
+      <c r="B114" t="s">
         <v>606</v>
       </c>
-      <c r="B113">
+      <c r="C114">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+    <row r="115" spans="2:3">
+      <c r="B115" t="s">
         <v>618</v>
       </c>
-      <c r="B114">
+      <c r="C115">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+    <row r="116" spans="2:3">
+      <c r="B116" t="s">
         <v>610</v>
       </c>
-      <c r="B115">
+      <c r="C116">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
+    <row r="117" spans="2:3">
+      <c r="B117" t="s">
         <v>614</v>
       </c>
-      <c r="B116">
+      <c r="C117">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
+    <row r="118" spans="2:3">
+      <c r="B118" t="s">
         <v>786</v>
       </c>
-      <c r="B117">
+      <c r="C118">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+    <row r="119" spans="2:3">
+      <c r="B119" t="s">
         <v>782</v>
       </c>
-      <c r="B118">
+      <c r="C119">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+    <row r="120" spans="2:3">
+      <c r="B120" t="s">
         <v>790</v>
       </c>
-      <c r="B119">
+      <c r="C120">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
+    <row r="121" spans="2:3">
+      <c r="B121" t="s">
         <v>778</v>
       </c>
-      <c r="B120">
+      <c r="C121">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+    <row r="122" spans="2:3">
+      <c r="B122" t="s">
         <v>774</v>
       </c>
-      <c r="B121">
+      <c r="C122">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+    <row r="123" spans="2:3">
+      <c r="B123" t="s">
         <v>836</v>
       </c>
-      <c r="B122">
+      <c r="C123">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
         <v>852</v>
       </c>
-      <c r="B123">
+      <c r="C124">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
+    <row r="125" spans="2:3">
+      <c r="B125" t="s">
         <v>848</v>
       </c>
-      <c r="B124">
+      <c r="C125">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+    <row r="126" spans="2:3">
+      <c r="B126" t="s">
         <v>840</v>
       </c>
-      <c r="B125">
+      <c r="C126">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+    <row r="127" spans="2:3">
+      <c r="B127" t="s">
         <v>844</v>
       </c>
-      <c r="B126">
+      <c r="C127">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+    <row r="128" spans="2:3">
+      <c r="B128" t="s">
         <v>924</v>
       </c>
-      <c r="B127">
+      <c r="C128">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+    <row r="129" spans="2:3">
+      <c r="B129" t="s">
         <v>881</v>
       </c>
-      <c r="B128">
+      <c r="C129">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+    <row r="130" spans="2:3">
+      <c r="B130" t="s">
         <v>1139</v>
       </c>
-      <c r="B129">
+      <c r="C130">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+    <row r="131" spans="2:3">
+      <c r="B131" t="s">
         <v>928</v>
       </c>
-      <c r="B130">
+      <c r="C131">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+    <row r="132" spans="2:3">
+      <c r="B132" t="s">
         <v>889</v>
       </c>
-      <c r="B131">
+      <c r="C132">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+    <row r="133" spans="2:3">
+      <c r="B133" t="s">
         <v>877</v>
       </c>
-      <c r="B132">
+      <c r="C133">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+    <row r="134" spans="2:3">
+      <c r="B134" t="s">
         <v>1051</v>
       </c>
-      <c r="B133">
+      <c r="C134">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+    <row r="135" spans="2:3">
+      <c r="B135" t="s">
         <v>1047</v>
       </c>
-      <c r="B134">
+      <c r="C135">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+    <row r="136" spans="2:3">
+      <c r="B136" t="s">
         <v>1016</v>
       </c>
-      <c r="B135">
+      <c r="C136">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+    <row r="137" spans="2:3">
+      <c r="B137" t="s">
         <v>1144</v>
       </c>
-      <c r="B136">
+      <c r="C137">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+    <row r="138" spans="2:3">
+      <c r="B138" t="s">
         <v>1143</v>
       </c>
-      <c r="B137">
+      <c r="C138">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+    <row r="139" spans="2:3">
+      <c r="B139" t="s">
         <v>1040</v>
       </c>
-      <c r="B138">
+      <c r="C139">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+    <row r="140" spans="2:3">
+      <c r="B140" t="s">
         <v>1036</v>
       </c>
-      <c r="B139">
+      <c r="C140">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+    <row r="141" spans="2:3">
+      <c r="B141" t="s">
         <v>1097</v>
       </c>
-      <c r="B140">
+      <c r="C141">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+    <row r="142" spans="2:3">
+      <c r="B142" t="s">
         <v>1108</v>
       </c>
-      <c r="B141">
+      <c r="C142">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B141">
-    <sortCondition ref="B1:B141" descending="1"/>
+  <sortState ref="B1:C141">
+    <sortCondition ref="C1:C141" descending="1"/>
   </sortState>
-  <conditionalFormatting sqref="A$1:B$1048576">
+  <mergeCells count="1">
+    <mergeCell ref="A64:A68"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:C1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/grb_map/2_supermarket_map/supermarket-crawler/offical_spider/china_offical_markets_walmat_format.xlsx
+++ b/grb_map/2_supermarket_map/supermarket-crawler/offical_spider/china_offical_markets_walmat_format.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7260" activeTab="2"/>
+    <workbookView windowWidth="14640" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="china_offical_markets_walmat_fo" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145">
   <si>
     <t>品牌</t>
   </si>
@@ -2649,78 +2648,78 @@
     <t>成都市双流区东升街道南昌路1-9号</t>
   </si>
   <si>
+    <t>沃尔玛购物广场宜宾酒都路分店</t>
+  </si>
+  <si>
+    <t>四川省宜宾市翠屏区酒都路中段55号沃尔玛购物广场</t>
+  </si>
+  <si>
+    <t>宜宾</t>
+  </si>
+  <si>
     <t>四川省宜宾市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场宜宾酒都路分店</t>
-  </si>
-  <si>
-    <t>四川省宜宾市翠屏区酒都路中段55号沃尔玛购物广场</t>
-  </si>
-  <si>
-    <t>宜宾</t>
+    <t>沃尔玛购物广场达州朝阳东路分店</t>
+  </si>
+  <si>
+    <t>四川省达州市通川区朝阳东路中心广场滨江名都城</t>
+  </si>
+  <si>
+    <t>达州</t>
   </si>
   <si>
     <t>四川省达州市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场达州朝阳东路分店</t>
-  </si>
-  <si>
-    <t>四川省达州市通川区朝阳东路中心广场滨江名都城</t>
-  </si>
-  <si>
-    <t>达州</t>
+    <t>沃尔玛购物广场德阳天山北路分店</t>
+  </si>
+  <si>
+    <t>德阳市天山北路6号德阳深国投商业中心地上第二层及地上第三层</t>
+  </si>
+  <si>
+    <t>德阳</t>
   </si>
   <si>
     <t>四川省德阳市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场德阳天山北路分店</t>
-  </si>
-  <si>
-    <t>德阳市天山北路6号德阳深国投商业中心地上第二层及地上第三层</t>
-  </si>
-  <si>
-    <t>德阳</t>
+    <t>沃尔玛购物广场遂宁嘉禾西路分店</t>
+  </si>
+  <si>
+    <t>四川省遂宁市船山区嘉禾西路近水楼台商业广场</t>
+  </si>
+  <si>
+    <t>遂宁</t>
   </si>
   <si>
     <t>四川省遂宁市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场遂宁嘉禾西路分店</t>
-  </si>
-  <si>
-    <t>四川省遂宁市船山区嘉禾西路近水楼台商业广场</t>
-  </si>
-  <si>
-    <t>遂宁</t>
+    <t>沃尔玛购物广场乐山土桥街分店</t>
+  </si>
+  <si>
+    <t>四川省乐山市市中区嘉瑞财富广场鼓楼街58号</t>
+  </si>
+  <si>
+    <t>乐山</t>
   </si>
   <si>
     <t>四川省乐山市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场乐山土桥街分店</t>
-  </si>
-  <si>
-    <t>四川省乐山市市中区嘉瑞财富广场鼓楼街58号</t>
-  </si>
-  <si>
-    <t>乐山</t>
+    <t>沃尔玛购物广场西昌航天大道分店</t>
+  </si>
+  <si>
+    <t>四川省凉山西昌市西昌市航天大道二段世纪MALL购物中心第二、三层</t>
+  </si>
+  <si>
+    <t>西昌</t>
   </si>
   <si>
     <t>四川省凉山彝族自治州西昌市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场西昌航天大道分店</t>
-  </si>
-  <si>
-    <t>四川省凉山西昌市西昌市航天大道二段世纪MALL购物中心第二、三层</t>
-  </si>
-  <si>
-    <t>西昌</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场彭州金彭东路分店</t>
   </si>
   <si>
@@ -2730,90 +2729,90 @@
     <t>彭州</t>
   </si>
   <si>
+    <t>沃尔玛购物广场攀枝花炳草岗分店</t>
+  </si>
+  <si>
+    <t>攀枝花市攀枝花大道东段439号云锦金瓯广场地下第一层</t>
+  </si>
+  <si>
+    <t>攀枝花</t>
+  </si>
+  <si>
     <t>四川省攀枝花市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场攀枝花炳草岗分店</t>
-  </si>
-  <si>
-    <t>攀枝花市攀枝花大道东段439号云锦金瓯广场地下第一层</t>
-  </si>
-  <si>
-    <t>攀枝花</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场攀枝花清香坪分店</t>
   </si>
   <si>
     <t>四川省攀枝花市西区苏铁中路88号</t>
   </si>
   <si>
+    <t>沃尔玛购物广场江油太白路分店</t>
+  </si>
+  <si>
+    <t>四川省绵阳市江油市涪江路中段614号汇元国际商业广场</t>
+  </si>
+  <si>
+    <t>江油</t>
+  </si>
+  <si>
     <t>四川省绵阳市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场江油太白路分店</t>
-  </si>
-  <si>
-    <t>四川省绵阳市江油市涪江路中段614号汇元国际商业广场</t>
-  </si>
-  <si>
-    <t>江油</t>
+    <t>沃尔玛购物广场自贡汇兴路分店</t>
+  </si>
+  <si>
+    <t>四川省自贡市自流井区龙汇街新汇社区居委会4组新美居家三期8栋</t>
+  </si>
+  <si>
+    <t>自贡</t>
   </si>
   <si>
     <t>四川省自贡市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场自贡汇兴路分店</t>
-  </si>
-  <si>
-    <t>四川省自贡市自流井区龙汇街新汇社区居委会4组新美居家三期8栋</t>
-  </si>
-  <si>
-    <t>自贡</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场自贡荣县分店</t>
   </si>
   <si>
     <t>自贡市荣县旭阳镇望景路356号</t>
   </si>
   <si>
+    <t>沃尔玛购物广场阆中人民广场分店</t>
+  </si>
+  <si>
+    <t>四川省阆中市保宁街道办事处郎家拐街54号人民广场购物中心地下第一层</t>
+  </si>
+  <si>
+    <t>阆中</t>
+  </si>
+  <si>
     <t>四川省南充市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场阆中人民广场分店</t>
-  </si>
-  <si>
-    <t>四川省阆中市保宁街道办事处郎家拐街54号人民广场购物中心地下第一层</t>
-  </si>
-  <si>
-    <t>阆中</t>
+    <t>沃尔玛购物广场巴中巴人广场分店</t>
+  </si>
+  <si>
+    <t>巴中市江北区广场街87号地下第一层</t>
+  </si>
+  <si>
+    <t>巴中</t>
   </si>
   <si>
     <t>四川省巴中市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场巴中巴人广场分店</t>
-  </si>
-  <si>
-    <t>巴中市江北区广场街87号地下第一层</t>
-  </si>
-  <si>
-    <t>巴中</t>
+    <t>沃尔玛购物广场眉山杭州路分店</t>
+  </si>
+  <si>
+    <t>眉山市三苏大道168号</t>
+  </si>
+  <si>
+    <t>眉山</t>
   </si>
   <si>
     <t>四川省眉山市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场眉山杭州路分店</t>
-  </si>
-  <si>
-    <t>眉山市三苏大道168号</t>
-  </si>
-  <si>
-    <t>眉山</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场峨眉名山东路分店</t>
   </si>
   <si>
@@ -2892,18 +2891,18 @@
     <t>都江堰</t>
   </si>
   <si>
+    <t>沃尔玛购物广场武清泉州路分店</t>
+  </si>
+  <si>
+    <t>天津市武清区泉州路东侧荔隆时代广场2-3层</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
     <t>天津市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场武清泉州路分店</t>
-  </si>
-  <si>
-    <t>天津市武清区泉州路东侧荔隆时代广场2-3层</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场天津新开路分店</t>
   </si>
   <si>
@@ -2916,18 +2915,18 @@
     <t>深圳沃尔玛百货零售有限公司天津和平路分店</t>
   </si>
   <si>
+    <t>沃尔玛购物广场昆明霖雨路分店</t>
+  </si>
+  <si>
+    <t>云南省昆明市五华区霖雨路中汇商场三楼</t>
+  </si>
+  <si>
+    <t>昆明</t>
+  </si>
+  <si>
     <t>云南省昆明市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场昆明霖雨路分店</t>
-  </si>
-  <si>
-    <t>云南省昆明市五华区霖雨路中汇商场三楼</t>
-  </si>
-  <si>
-    <t>昆明</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场昆明兴苑路分店</t>
   </si>
   <si>
@@ -3000,156 +2999,156 @@
     <t>昆明市盘龙区金瓦路与东三环交叉口福缇商业中心负一层</t>
   </si>
   <si>
+    <t>沃尔玛购物广场大理泰安路分店</t>
+  </si>
+  <si>
+    <t>云南省大理市下关镇洱河北路与泰安路交叉口中民城市广场沃尔玛超市</t>
+  </si>
+  <si>
+    <t>大理</t>
+  </si>
+  <si>
     <t>云南省大理白族自治州大理市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场大理泰安路分店</t>
-  </si>
-  <si>
-    <t>云南省大理市下关镇洱河北路与泰安路交叉口中民城市广场沃尔玛超市</t>
-  </si>
-  <si>
-    <t>大理</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场大理建设路分店</t>
   </si>
   <si>
     <t>大理市建设路和泰安路交叉口物业的B1&amp;1F</t>
   </si>
   <si>
+    <t>沃尔玛购物广场曲靖交通路分店</t>
+  </si>
+  <si>
+    <t>云南省曲靖市麒麟区交通路与麒麟北路交叉口 </t>
+  </si>
+  <si>
+    <t>曲靖</t>
+  </si>
+  <si>
     <t>云南省曲靖市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场曲靖交通路分店</t>
-  </si>
-  <si>
-    <t>云南省曲靖市麒麟区交通路与麒麟北路交叉口 </t>
-  </si>
-  <si>
-    <t>曲靖</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场曲靖子午路分店</t>
   </si>
   <si>
     <t>云南省曲靖市南片区子午路和文笔路交叉口</t>
   </si>
   <si>
+    <t>沃尔玛购物广场个旧金湖分店</t>
+  </si>
+  <si>
+    <t>云南省个旧市五一路4号</t>
+  </si>
+  <si>
+    <t>个旧</t>
+  </si>
+  <si>
     <t>云南省红河哈尼族彝族自治州个旧市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场个旧金湖分店</t>
-  </si>
-  <si>
-    <t>云南省个旧市五一路4号</t>
-  </si>
-  <si>
-    <t>个旧</t>
+    <t>沃尔玛购物广场楚雄府后街分店</t>
+  </si>
+  <si>
+    <t>云南省楚雄市府后街1-21号紫溪商业中心沃尔玛购物广场</t>
+  </si>
+  <si>
+    <t>楚雄</t>
   </si>
   <si>
     <t>云南省楚雄彝族自治州楚雄市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场楚雄府后街分店</t>
-  </si>
-  <si>
-    <t>云南省楚雄市府后街1-21号紫溪商业中心沃尔玛购物广场</t>
-  </si>
-  <si>
-    <t>楚雄</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场楚雄团结路分店</t>
   </si>
   <si>
     <t>云南省楚雄楚雄市团结路与北浦路交叉口伟业广场</t>
   </si>
   <si>
+    <t>沃尔玛购物广场普洱林源路分店</t>
+  </si>
+  <si>
+    <t>云南省普洱市思茅区林源路创基商城沃尔玛</t>
+  </si>
+  <si>
+    <t>普洱</t>
+  </si>
+  <si>
     <t>云南省普洱市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场普洱林源路分店</t>
-  </si>
-  <si>
-    <t>云南省普洱市思茅区林源路创基商城沃尔玛</t>
-  </si>
-  <si>
-    <t>普洱</t>
+    <t>沃尔玛购物广场景洪勐海路分店</t>
+  </si>
+  <si>
+    <t>西双版纳傣族自治州景洪市勐海路4号</t>
+  </si>
+  <si>
+    <t>西双版纳景洪市</t>
   </si>
   <si>
     <t>云南省西双版纳傣族自治州景洪市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场景洪勐海路分店</t>
-  </si>
-  <si>
-    <t>西双版纳傣族自治州景洪市勐海路4号</t>
-  </si>
-  <si>
-    <t>西双版纳景洪市</t>
+    <t>沃尔玛购物广场文山东风路分店</t>
+  </si>
+  <si>
+    <t>云南省文山州文山市东风路光大广场负一楼</t>
+  </si>
+  <si>
+    <t>文山</t>
   </si>
   <si>
     <t>云南省文山壮族苗族自治州文山市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场文山东风路分店</t>
-  </si>
-  <si>
-    <t>云南省文山州文山市东风路光大广场负一楼</t>
-  </si>
-  <si>
-    <t>文山</t>
+    <t>沃尔玛购物广场弥勒髯翁路分店</t>
+  </si>
+  <si>
+    <t>云南省弥勒市弥阳镇金辰时代广场负一楼</t>
+  </si>
+  <si>
+    <t>红河州弥勒</t>
   </si>
   <si>
     <t>云南省红河哈尼族彝族自治州弥勒县冉翁路</t>
   </si>
   <si>
-    <t>沃尔玛购物广场弥勒髯翁路分店</t>
-  </si>
-  <si>
-    <t>云南省弥勒市弥阳镇金辰时代广场负一楼</t>
-  </si>
-  <si>
-    <t>红河州弥勒</t>
+    <t>沃尔玛购物广场建水东林路分店</t>
+  </si>
+  <si>
+    <t>云南省红河州建水县临安镇广慈路东林路旁</t>
+  </si>
+  <si>
+    <t>红河州建水</t>
   </si>
   <si>
     <t>云南省红河哈尼族彝族自治州建水县建水大道647</t>
   </si>
   <si>
-    <t>沃尔玛购物广场建水东林路分店</t>
-  </si>
-  <si>
-    <t>云南省红河州建水县临安镇广慈路东林路旁</t>
-  </si>
-  <si>
-    <t>红河州建水</t>
+    <t>沃尔玛购物广场昭通环城东路分店</t>
+  </si>
+  <si>
+    <t>云南省昭通市昭阳区环城东路与环城北路交叉口</t>
+  </si>
+  <si>
+    <t>昭通</t>
   </si>
   <si>
     <t>云南省昭通市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场昭通环城东路分店</t>
-  </si>
-  <si>
-    <t>云南省昭通市昭阳区环城东路与环城北路交叉口</t>
-  </si>
-  <si>
-    <t>昭通</t>
+    <t>沃尔玛购物广场云南玉溪东风广场分店</t>
+  </si>
+  <si>
+    <t>云南省玉溪市红塔区东风中路1号</t>
+  </si>
+  <si>
+    <t>玉溪</t>
   </si>
   <si>
     <t>云南省玉溪市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场云南玉溪东风广场分店</t>
-  </si>
-  <si>
-    <t>云南省玉溪市红塔区东风中路1号</t>
-  </si>
-  <si>
-    <t>玉溪</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场宣威文化路分店</t>
   </si>
   <si>
@@ -3159,42 +3158,42 @@
     <t>宣威</t>
   </si>
   <si>
+    <t>沃尔玛购物广场临沧沧江路分店</t>
+  </si>
+  <si>
+    <t>云南省临沧市临翔区沧江路恒基广场</t>
+  </si>
+  <si>
+    <t>临沧</t>
+  </si>
+  <si>
     <t>云南省临沧市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场临沧沧江路分店</t>
-  </si>
-  <si>
-    <t>云南省临沧市临翔区沧江路恒基广场</t>
-  </si>
-  <si>
-    <t>临沧</t>
+    <t>沃尔玛购物广场丽江香格里拉大道分店</t>
+  </si>
+  <si>
+    <t>云南省丽江市古城区香格里大道祥和商业广场</t>
+  </si>
+  <si>
+    <t>丽江</t>
   </si>
   <si>
     <t>云南省丽江市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场丽江香格里拉大道分店</t>
-  </si>
-  <si>
-    <t>云南省丽江市古城区香格里大道祥和商业广场</t>
-  </si>
-  <si>
-    <t>丽江</t>
+    <t>沃尔玛购物广场金华时代广场分店</t>
+  </si>
+  <si>
+    <t>金华市八一北街108号</t>
+  </si>
+  <si>
+    <t>金华</t>
   </si>
   <si>
     <t>浙江省金华市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场金华时代广场分店</t>
-  </si>
-  <si>
-    <t>金华市八一北街108号</t>
-  </si>
-  <si>
-    <t>金华</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场浦江大桥北路分店</t>
   </si>
   <si>
@@ -3207,18 +3206,18 @@
     <t>浙江省武义县俞源街与西溪路交汇处金灿财富广场</t>
   </si>
   <si>
+    <t>沃尔玛购物广场杭州东新分店</t>
+  </si>
+  <si>
+    <t>杭州市香积寺东路58号</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
     <t>浙江省杭州市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场杭州东新分店</t>
-  </si>
-  <si>
-    <t>杭州市香积寺东路58号</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场杭州古墩路分店</t>
   </si>
   <si>
@@ -3243,18 +3242,18 @@
     <t>浙江省杭州市上城区秋涛支路近江路１号</t>
   </si>
   <si>
+    <t>沃尔玛购物广场嘉兴洪兴路分店</t>
+  </si>
+  <si>
+    <t>嘉兴市秀洲区洪兴路与新洲路交叉口江南摩尔广场</t>
+  </si>
+  <si>
+    <t>嘉兴</t>
+  </si>
+  <si>
     <t>浙江省嘉兴市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场嘉兴洪兴路分店</t>
-  </si>
-  <si>
-    <t>嘉兴市秀洲区洪兴路与新洲路交叉口江南摩尔广场</t>
-  </si>
-  <si>
-    <t>嘉兴</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场嘉兴双溪路分店</t>
   </si>
   <si>
@@ -3267,18 +3266,18 @@
     <t>浙江省嘉兴市南湖区建国中路华庭街地下一层 沃尔玛购物广场超市</t>
   </si>
   <si>
+    <t>沃尔玛购物广场宁波四明中路分店</t>
+  </si>
+  <si>
+    <t>宁波市鄞州区四明中路999号</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
     <t>浙江省宁波市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场宁波四明中路分店</t>
-  </si>
-  <si>
-    <t>宁波市鄞州区四明中路999号</t>
-  </si>
-  <si>
-    <t>宁波</t>
-  </si>
-  <si>
     <t> 沃尔玛购物广场宁波联丰店</t>
   </si>
   <si>
@@ -3309,30 +3308,30 @@
     <t>桐乡</t>
   </si>
   <si>
+    <t>沃尔玛购物广场丽水解放街分店</t>
+  </si>
+  <si>
+    <t>浙江省丽水市莲都区解放街198号</t>
+  </si>
+  <si>
+    <t>丽水</t>
+  </si>
+  <si>
     <t>浙江省丽水市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场丽水解放街分店</t>
-  </si>
-  <si>
-    <t>浙江省丽水市莲都区解放街198号</t>
-  </si>
-  <si>
-    <t>丽水</t>
+    <t>沃尔玛购物广场德清永安街分店</t>
+  </si>
+  <si>
+    <t>浙江省湖州市德清县武康镇永安街158号</t>
+  </si>
+  <si>
+    <t>德清</t>
   </si>
   <si>
     <t>浙江省湖州市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场德清永安街分店</t>
-  </si>
-  <si>
-    <t>浙江省湖州市德清县武康镇永安街158号</t>
-  </si>
-  <si>
-    <t>德清</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场海宁联合路分店</t>
   </si>
   <si>
@@ -3342,18 +3341,18 @@
     <t>海宁</t>
   </si>
   <si>
+    <t>沃尔玛购物广场绍兴柯桥笛扬路分店</t>
+  </si>
+  <si>
+    <t>绍兴市柯桥笛扬路1398号蓝天市心广场地下第一层</t>
+  </si>
+  <si>
+    <t>绍兴</t>
+  </si>
+  <si>
     <t>浙江省绍兴市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场绍兴柯桥笛扬路分店</t>
-  </si>
-  <si>
-    <t>绍兴市柯桥笛扬路1398号蓝天市心广场地下第一层</t>
-  </si>
-  <si>
-    <t>绍兴</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场余姚城东路分店</t>
   </si>
   <si>
@@ -3372,18 +3371,18 @@
     <t>临安</t>
   </si>
   <si>
+    <t>沃尔玛购物广场乐清伯乐东路分店</t>
+  </si>
+  <si>
+    <t>乐清市伯乐东路666号南虹广场B1001号</t>
+  </si>
+  <si>
+    <t>乐清</t>
+  </si>
+  <si>
     <t>浙江省温州市</t>
   </si>
   <si>
-    <t>沃尔玛购物广场乐清伯乐东路分店</t>
-  </si>
-  <si>
-    <t>乐清市伯乐东路666号南虹广场B1001号</t>
-  </si>
-  <si>
-    <t>乐清</t>
-  </si>
-  <si>
     <t>沃尔玛购物广场湖州二环东路分店</t>
   </si>
   <si>
@@ -3435,34 +3434,22 @@
     <t>温州市飞霞北路东侧欧洲城H幢2-3层</t>
   </si>
   <si>
-    <t>四川省凉山彝族自治州</t>
-  </si>
-  <si>
-    <t>云南省大理白族自治州</t>
-  </si>
-  <si>
-    <t>云南省红河哈尼族彝族自治州</t>
-  </si>
-  <si>
-    <t>云南省楚雄彝族自治州</t>
-  </si>
-  <si>
-    <t>云南省西双版纳傣族自治州</t>
-  </si>
-  <si>
-    <t>云南省文山壮族苗族自治州</t>
+    <t> 沃尔玛购物广场义乌世纪店</t>
+  </si>
+  <si>
+    <t>义乌市绣湖广场地下商城负二楼沃尔玛</t>
+  </si>
+  <si>
+    <t>义乌</t>
   </si>
   <si>
     <t>城市</t>
   </si>
   <si>
-    <t>门店数</t>
+    <t>门店数量</t>
   </si>
   <si>
     <t>排名</t>
-  </si>
-  <si>
-    <t>安徽</t>
   </si>
 </sst>
 </file>
@@ -3471,11 +3458,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3485,9 +3472,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3500,15 +3539,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3530,70 +3561,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3615,27 +3585,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3644,13 +3624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3662,7 +3642,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3674,43 +3708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3728,7 +3726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3740,43 +3750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3794,25 +3774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3824,13 +3798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3841,6 +3815,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3870,50 +3883,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3932,15 +3915,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3949,10 +3923,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3961,7 +3935,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3970,124 +3944,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4095,11 +4069,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4153,7 +4127,37 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4429,17 +4433,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E407"/>
+  <dimension ref="A1:E408"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E396" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="38.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="53.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="79.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
   </cols>
@@ -8491,7 +8495,7 @@
       <c r="A239" t="s">
         <v>5</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>652</v>
       </c>
       <c r="C239" t="s">
@@ -9861,7 +9865,7 @@
         <v>855</v>
       </c>
       <c r="E319" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -9869,16 +9873,16 @@
         <v>5</v>
       </c>
       <c r="B320" t="s">
+        <v>877</v>
+      </c>
+      <c r="C320" t="s">
         <v>878</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
         <v>879</v>
       </c>
-      <c r="D320" t="s">
+      <c r="E320" t="s">
         <v>880</v>
-      </c>
-      <c r="E320" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -9886,16 +9890,16 @@
         <v>5</v>
       </c>
       <c r="B321" t="s">
+        <v>881</v>
+      </c>
+      <c r="C321" t="s">
         <v>882</v>
       </c>
-      <c r="C321" t="s">
+      <c r="D321" t="s">
         <v>883</v>
       </c>
-      <c r="D321" t="s">
+      <c r="E321" t="s">
         <v>884</v>
-      </c>
-      <c r="E321" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -9903,16 +9907,16 @@
         <v>5</v>
       </c>
       <c r="B322" t="s">
+        <v>885</v>
+      </c>
+      <c r="C322" t="s">
         <v>886</v>
       </c>
-      <c r="C322" t="s">
+      <c r="D322" t="s">
         <v>887</v>
       </c>
-      <c r="D322" t="s">
+      <c r="E322" t="s">
         <v>888</v>
-      </c>
-      <c r="E322" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -9920,16 +9924,16 @@
         <v>5</v>
       </c>
       <c r="B323" t="s">
+        <v>889</v>
+      </c>
+      <c r="C323" t="s">
         <v>890</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" t="s">
         <v>891</v>
       </c>
-      <c r="D323" t="s">
+      <c r="E323" t="s">
         <v>892</v>
-      </c>
-      <c r="E323" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -9937,16 +9941,16 @@
         <v>5</v>
       </c>
       <c r="B324" t="s">
+        <v>893</v>
+      </c>
+      <c r="C324" t="s">
         <v>894</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>895</v>
       </c>
-      <c r="D324" t="s">
+      <c r="E324" t="s">
         <v>896</v>
-      </c>
-      <c r="E324" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -9954,16 +9958,16 @@
         <v>5</v>
       </c>
       <c r="B325" t="s">
+        <v>897</v>
+      </c>
+      <c r="C325" t="s">
         <v>898</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>899</v>
       </c>
-      <c r="D325" t="s">
+      <c r="E325" t="s">
         <v>900</v>
-      </c>
-      <c r="E325" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -9980,7 +9984,7 @@
         <v>903</v>
       </c>
       <c r="E326" t="s">
-        <v>904</v>
+        <v>856</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -9988,16 +9992,16 @@
         <v>5</v>
       </c>
       <c r="B327" t="s">
+        <v>904</v>
+      </c>
+      <c r="C327" t="s">
         <v>905</v>
       </c>
-      <c r="C327" t="s">
+      <c r="D327" t="s">
         <v>906</v>
       </c>
-      <c r="D327" t="s">
+      <c r="E327" t="s">
         <v>907</v>
-      </c>
-      <c r="E327" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -10011,10 +10015,10 @@
         <v>909</v>
       </c>
       <c r="D328" t="s">
+        <v>906</v>
+      </c>
+      <c r="E328" t="s">
         <v>907</v>
-      </c>
-      <c r="E328" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -10022,16 +10026,16 @@
         <v>5</v>
       </c>
       <c r="B329" t="s">
+        <v>910</v>
+      </c>
+      <c r="C329" t="s">
         <v>911</v>
       </c>
-      <c r="C329" t="s">
+      <c r="D329" t="s">
         <v>912</v>
       </c>
-      <c r="D329" t="s">
+      <c r="E329" t="s">
         <v>913</v>
-      </c>
-      <c r="E329" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -10039,16 +10043,16 @@
         <v>5</v>
       </c>
       <c r="B330" t="s">
+        <v>914</v>
+      </c>
+      <c r="C330" t="s">
         <v>915</v>
       </c>
-      <c r="C330" t="s">
+      <c r="D330" t="s">
         <v>916</v>
       </c>
-      <c r="D330" t="s">
+      <c r="E330" t="s">
         <v>917</v>
-      </c>
-      <c r="E330" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -10062,10 +10066,10 @@
         <v>919</v>
       </c>
       <c r="D331" t="s">
+        <v>916</v>
+      </c>
+      <c r="E331" t="s">
         <v>917</v>
-      </c>
-      <c r="E331" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -10073,16 +10077,16 @@
         <v>5</v>
       </c>
       <c r="B332" t="s">
+        <v>920</v>
+      </c>
+      <c r="C332" t="s">
         <v>921</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>922</v>
       </c>
-      <c r="D332" t="s">
+      <c r="E332" t="s">
         <v>923</v>
-      </c>
-      <c r="E332" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -10090,16 +10094,16 @@
         <v>5</v>
       </c>
       <c r="B333" t="s">
+        <v>924</v>
+      </c>
+      <c r="C333" t="s">
         <v>925</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>926</v>
       </c>
-      <c r="D333" t="s">
+      <c r="E333" t="s">
         <v>927</v>
-      </c>
-      <c r="E333" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -10107,16 +10111,16 @@
         <v>5</v>
       </c>
       <c r="B334" t="s">
+        <v>928</v>
+      </c>
+      <c r="C334" t="s">
         <v>929</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>930</v>
       </c>
-      <c r="D334" t="s">
+      <c r="E334" t="s">
         <v>931</v>
-      </c>
-      <c r="E334" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -10133,7 +10137,7 @@
         <v>934</v>
       </c>
       <c r="E335" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -10150,7 +10154,7 @@
         <v>937</v>
       </c>
       <c r="E336" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -10167,7 +10171,7 @@
         <v>937</v>
       </c>
       <c r="E337" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -10184,7 +10188,7 @@
         <v>937</v>
       </c>
       <c r="E338" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -10201,7 +10205,7 @@
         <v>937</v>
       </c>
       <c r="E339" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -10218,7 +10222,7 @@
         <v>937</v>
       </c>
       <c r="E340" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -10235,7 +10239,7 @@
         <v>948</v>
       </c>
       <c r="E341" t="s">
-        <v>856</v>
+        <v>888</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -10252,7 +10256,7 @@
         <v>951</v>
       </c>
       <c r="E342" t="s">
-        <v>920</v>
+        <v>856</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -10269,7 +10273,7 @@
         <v>954</v>
       </c>
       <c r="E343" t="s">
-        <v>856</v>
+        <v>923</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -10286,7 +10290,7 @@
         <v>957</v>
       </c>
       <c r="E344" t="s">
-        <v>958</v>
+        <v>856</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -10294,16 +10298,16 @@
         <v>5</v>
       </c>
       <c r="B345" t="s">
+        <v>958</v>
+      </c>
+      <c r="C345" t="s">
         <v>959</v>
       </c>
-      <c r="C345" t="s">
+      <c r="D345" t="s">
         <v>960</v>
       </c>
-      <c r="D345" t="s">
+      <c r="E345" t="s">
         <v>961</v>
-      </c>
-      <c r="E345" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -10317,10 +10321,10 @@
         <v>963</v>
       </c>
       <c r="D346" t="s">
+        <v>960</v>
+      </c>
+      <c r="E346" t="s">
         <v>961</v>
-      </c>
-      <c r="E346" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -10334,10 +10338,10 @@
         <v>965</v>
       </c>
       <c r="D347" t="s">
+        <v>960</v>
+      </c>
+      <c r="E347" t="s">
         <v>961</v>
-      </c>
-      <c r="E347" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -10345,16 +10349,16 @@
         <v>5</v>
       </c>
       <c r="B348" t="s">
+        <v>966</v>
+      </c>
+      <c r="C348" t="s">
         <v>967</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" t="s">
         <v>968</v>
       </c>
-      <c r="D348" t="s">
+      <c r="E348" t="s">
         <v>969</v>
-      </c>
-      <c r="E348" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -10368,10 +10372,10 @@
         <v>971</v>
       </c>
       <c r="D349" t="s">
+        <v>968</v>
+      </c>
+      <c r="E349" t="s">
         <v>969</v>
-      </c>
-      <c r="E349" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -10385,10 +10389,10 @@
         <v>973</v>
       </c>
       <c r="D350" t="s">
+        <v>968</v>
+      </c>
+      <c r="E350" t="s">
         <v>969</v>
-      </c>
-      <c r="E350" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -10402,10 +10406,10 @@
         <v>975</v>
       </c>
       <c r="D351" t="s">
+        <v>968</v>
+      </c>
+      <c r="E351" t="s">
         <v>969</v>
-      </c>
-      <c r="E351" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -10419,10 +10423,10 @@
         <v>977</v>
       </c>
       <c r="D352" t="s">
+        <v>968</v>
+      </c>
+      <c r="E352" t="s">
         <v>969</v>
-      </c>
-      <c r="E352" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -10436,10 +10440,10 @@
         <v>979</v>
       </c>
       <c r="D353" t="s">
+        <v>968</v>
+      </c>
+      <c r="E353" t="s">
         <v>969</v>
-      </c>
-      <c r="E353" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -10453,10 +10457,10 @@
         <v>981</v>
       </c>
       <c r="D354" t="s">
+        <v>968</v>
+      </c>
+      <c r="E354" t="s">
         <v>969</v>
-      </c>
-      <c r="E354" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -10470,10 +10474,10 @@
         <v>983</v>
       </c>
       <c r="D355" t="s">
+        <v>968</v>
+      </c>
+      <c r="E355" t="s">
         <v>969</v>
-      </c>
-      <c r="E355" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -10487,10 +10491,10 @@
         <v>985</v>
       </c>
       <c r="D356" t="s">
+        <v>968</v>
+      </c>
+      <c r="E356" t="s">
         <v>969</v>
-      </c>
-      <c r="E356" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -10504,10 +10508,10 @@
         <v>987</v>
       </c>
       <c r="D357" t="s">
+        <v>968</v>
+      </c>
+      <c r="E357" t="s">
         <v>969</v>
-      </c>
-      <c r="E357" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -10521,10 +10525,10 @@
         <v>989</v>
       </c>
       <c r="D358" t="s">
+        <v>968</v>
+      </c>
+      <c r="E358" t="s">
         <v>969</v>
-      </c>
-      <c r="E358" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -10538,10 +10542,10 @@
         <v>991</v>
       </c>
       <c r="D359" t="s">
+        <v>968</v>
+      </c>
+      <c r="E359" t="s">
         <v>969</v>
-      </c>
-      <c r="E359" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -10555,10 +10559,10 @@
         <v>993</v>
       </c>
       <c r="D360" t="s">
+        <v>968</v>
+      </c>
+      <c r="E360" t="s">
         <v>969</v>
-      </c>
-      <c r="E360" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -10566,16 +10570,16 @@
         <v>5</v>
       </c>
       <c r="B361" t="s">
+        <v>994</v>
+      </c>
+      <c r="C361" t="s">
         <v>995</v>
       </c>
-      <c r="C361" t="s">
+      <c r="D361" t="s">
         <v>996</v>
       </c>
-      <c r="D361" t="s">
+      <c r="E361" t="s">
         <v>997</v>
-      </c>
-      <c r="E361" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -10589,10 +10593,10 @@
         <v>999</v>
       </c>
       <c r="D362" t="s">
+        <v>996</v>
+      </c>
+      <c r="E362" t="s">
         <v>997</v>
-      </c>
-      <c r="E362" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -10600,16 +10604,16 @@
         <v>5</v>
       </c>
       <c r="B363" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C363" t="s">
         <v>1001</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
         <v>1002</v>
       </c>
-      <c r="D363" t="s">
+      <c r="E363" t="s">
         <v>1003</v>
-      </c>
-      <c r="E363" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -10623,10 +10627,10 @@
         <v>1005</v>
       </c>
       <c r="D364" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E364" t="s">
         <v>1003</v>
-      </c>
-      <c r="E364" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -10634,16 +10638,16 @@
         <v>5</v>
       </c>
       <c r="B365" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C365" t="s">
         <v>1007</v>
       </c>
-      <c r="C365" t="s">
+      <c r="D365" t="s">
         <v>1008</v>
       </c>
-      <c r="D365" t="s">
+      <c r="E365" t="s">
         <v>1009</v>
-      </c>
-      <c r="E365" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -10651,16 +10655,16 @@
         <v>5</v>
       </c>
       <c r="B366" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C366" t="s">
         <v>1011</v>
       </c>
-      <c r="C366" t="s">
+      <c r="D366" t="s">
         <v>1012</v>
       </c>
-      <c r="D366" t="s">
+      <c r="E366" t="s">
         <v>1013</v>
-      </c>
-      <c r="E366" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -10674,10 +10678,10 @@
         <v>1015</v>
       </c>
       <c r="D367" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E367" t="s">
         <v>1013</v>
-      </c>
-      <c r="E367" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -10685,16 +10689,16 @@
         <v>5</v>
       </c>
       <c r="B368" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C368" t="s">
         <v>1017</v>
       </c>
-      <c r="C368" t="s">
+      <c r="D368" t="s">
         <v>1018</v>
       </c>
-      <c r="D368" t="s">
+      <c r="E368" t="s">
         <v>1019</v>
-      </c>
-      <c r="E368" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -10702,16 +10706,16 @@
         <v>5</v>
       </c>
       <c r="B369" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C369" t="s">
         <v>1021</v>
       </c>
-      <c r="C369" t="s">
+      <c r="D369" t="s">
         <v>1022</v>
       </c>
-      <c r="D369" t="s">
+      <c r="E369" t="s">
         <v>1023</v>
-      </c>
-      <c r="E369" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -10719,16 +10723,16 @@
         <v>5</v>
       </c>
       <c r="B370" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C370" t="s">
         <v>1025</v>
       </c>
-      <c r="C370" t="s">
+      <c r="D370" t="s">
         <v>1026</v>
       </c>
-      <c r="D370" t="s">
+      <c r="E370" t="s">
         <v>1027</v>
-      </c>
-      <c r="E370" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -10736,16 +10740,16 @@
         <v>5</v>
       </c>
       <c r="B371" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C371" t="s">
         <v>1029</v>
       </c>
-      <c r="C371" t="s">
+      <c r="D371" t="s">
         <v>1030</v>
       </c>
-      <c r="D371" t="s">
+      <c r="E371" t="s">
         <v>1031</v>
-      </c>
-      <c r="E371" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -10753,16 +10757,16 @@
         <v>5</v>
       </c>
       <c r="B372" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C372" t="s">
         <v>1033</v>
       </c>
-      <c r="C372" t="s">
+      <c r="D372" t="s">
         <v>1034</v>
       </c>
-      <c r="D372" t="s">
+      <c r="E372" t="s">
         <v>1035</v>
-      </c>
-      <c r="E372" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -10770,16 +10774,16 @@
         <v>5</v>
       </c>
       <c r="B373" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C373" t="s">
         <v>1037</v>
       </c>
-      <c r="C373" t="s">
+      <c r="D373" t="s">
         <v>1038</v>
       </c>
-      <c r="D373" t="s">
+      <c r="E373" t="s">
         <v>1039</v>
-      </c>
-      <c r="E373" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -10787,16 +10791,16 @@
         <v>5</v>
       </c>
       <c r="B374" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C374" t="s">
         <v>1041</v>
       </c>
-      <c r="C374" t="s">
+      <c r="D374" t="s">
         <v>1042</v>
       </c>
-      <c r="D374" t="s">
+      <c r="E374" t="s">
         <v>1043</v>
-      </c>
-      <c r="E374" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -10813,7 +10817,7 @@
         <v>1046</v>
       </c>
       <c r="E375" t="s">
-        <v>1047</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -10821,16 +10825,16 @@
         <v>5</v>
       </c>
       <c r="B376" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C376" t="s">
         <v>1048</v>
       </c>
-      <c r="C376" t="s">
+      <c r="D376" t="s">
         <v>1049</v>
       </c>
-      <c r="D376" t="s">
+      <c r="E376" t="s">
         <v>1050</v>
-      </c>
-      <c r="E376" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -10838,16 +10842,16 @@
         <v>5</v>
       </c>
       <c r="B377" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C377" t="s">
         <v>1052</v>
       </c>
-      <c r="C377" t="s">
+      <c r="D377" t="s">
         <v>1053</v>
       </c>
-      <c r="D377" t="s">
+      <c r="E377" t="s">
         <v>1054</v>
-      </c>
-      <c r="E377" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -10855,16 +10859,16 @@
         <v>5</v>
       </c>
       <c r="B378" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C378" t="s">
         <v>1056</v>
       </c>
-      <c r="C378" t="s">
+      <c r="D378" t="s">
         <v>1057</v>
       </c>
-      <c r="D378" t="s">
+      <c r="E378" t="s">
         <v>1058</v>
-      </c>
-      <c r="E378" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -10878,10 +10882,10 @@
         <v>1060</v>
       </c>
       <c r="D379" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E379" t="s">
         <v>1058</v>
-      </c>
-      <c r="E379" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -10895,10 +10899,10 @@
         <v>1062</v>
       </c>
       <c r="D380" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E380" t="s">
         <v>1058</v>
-      </c>
-      <c r="E380" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -10906,16 +10910,16 @@
         <v>5</v>
       </c>
       <c r="B381" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C381" t="s">
         <v>1064</v>
       </c>
-      <c r="C381" t="s">
+      <c r="D381" t="s">
         <v>1065</v>
       </c>
-      <c r="D381" t="s">
+      <c r="E381" t="s">
         <v>1066</v>
-      </c>
-      <c r="E381" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -10929,10 +10933,10 @@
         <v>1068</v>
       </c>
       <c r="D382" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E382" t="s">
         <v>1066</v>
-      </c>
-      <c r="E382" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -10946,10 +10950,10 @@
         <v>1070</v>
       </c>
       <c r="D383" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E383" t="s">
         <v>1066</v>
-      </c>
-      <c r="E383" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -10963,10 +10967,10 @@
         <v>1072</v>
       </c>
       <c r="D384" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E384" t="s">
         <v>1066</v>
-      </c>
-      <c r="E384" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -10980,10 +10984,10 @@
         <v>1074</v>
       </c>
       <c r="D385" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E385" t="s">
         <v>1066</v>
-      </c>
-      <c r="E385" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -10991,16 +10995,16 @@
         <v>5</v>
       </c>
       <c r="B386" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C386" t="s">
         <v>1076</v>
       </c>
-      <c r="C386" t="s">
+      <c r="D386" t="s">
         <v>1077</v>
       </c>
-      <c r="D386" t="s">
+      <c r="E386" t="s">
         <v>1078</v>
-      </c>
-      <c r="E386" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -11014,10 +11018,10 @@
         <v>1080</v>
       </c>
       <c r="D387" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E387" t="s">
         <v>1078</v>
-      </c>
-      <c r="E387" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -11031,10 +11035,10 @@
         <v>1082</v>
       </c>
       <c r="D388" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E388" t="s">
         <v>1078</v>
-      </c>
-      <c r="E388" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -11042,16 +11046,16 @@
         <v>5</v>
       </c>
       <c r="B389" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C389" t="s">
         <v>1084</v>
       </c>
-      <c r="C389" t="s">
+      <c r="D389" t="s">
         <v>1085</v>
       </c>
-      <c r="D389" t="s">
+      <c r="E389" t="s">
         <v>1086</v>
-      </c>
-      <c r="E389" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -11065,10 +11069,10 @@
         <v>1088</v>
       </c>
       <c r="D390" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E390" t="s">
         <v>1086</v>
-      </c>
-      <c r="E390" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -11082,10 +11086,10 @@
         <v>1090</v>
       </c>
       <c r="D391" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E391" t="s">
         <v>1086</v>
-      </c>
-      <c r="E391" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -11102,7 +11106,7 @@
         <v>1093</v>
       </c>
       <c r="E392" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -11119,7 +11123,7 @@
         <v>1096</v>
       </c>
       <c r="E393" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -11127,16 +11131,16 @@
         <v>5</v>
       </c>
       <c r="B394" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C394" t="s">
         <v>1098</v>
       </c>
-      <c r="C394" t="s">
+      <c r="D394" t="s">
         <v>1099</v>
       </c>
-      <c r="D394" t="s">
+      <c r="E394" t="s">
         <v>1100</v>
-      </c>
-      <c r="E394" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -11144,16 +11148,16 @@
         <v>5</v>
       </c>
       <c r="B395" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C395" t="s">
         <v>1102</v>
       </c>
-      <c r="C395" t="s">
+      <c r="D395" t="s">
         <v>1103</v>
       </c>
-      <c r="D395" t="s">
+      <c r="E395" t="s">
         <v>1104</v>
-      </c>
-      <c r="E395" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -11170,7 +11174,7 @@
         <v>1107</v>
       </c>
       <c r="E396" t="s">
-        <v>1108</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -11178,16 +11182,16 @@
         <v>5</v>
       </c>
       <c r="B397" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C397" t="s">
         <v>1109</v>
       </c>
-      <c r="C397" t="s">
+      <c r="D397" t="s">
         <v>1110</v>
       </c>
-      <c r="D397" t="s">
+      <c r="E397" t="s">
         <v>1111</v>
-      </c>
-      <c r="E397" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -11204,7 +11208,7 @@
         <v>1114</v>
       </c>
       <c r="E398" t="s">
-        <v>1063</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -11221,7 +11225,7 @@
         <v>1117</v>
       </c>
       <c r="E399" t="s">
-        <v>1118</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -11229,16 +11233,16 @@
         <v>5</v>
       </c>
       <c r="B400" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C400" t="s">
         <v>1119</v>
       </c>
-      <c r="C400" t="s">
+      <c r="D400" t="s">
         <v>1120</v>
       </c>
-      <c r="D400" t="s">
+      <c r="E400" t="s">
         <v>1121</v>
-      </c>
-      <c r="E400" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -11255,7 +11259,7 @@
         <v>1124</v>
       </c>
       <c r="E401" t="s">
-        <v>1055</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -11272,7 +11276,7 @@
         <v>1127</v>
       </c>
       <c r="E402" t="s">
-        <v>1118</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -11289,7 +11293,7 @@
         <v>1130</v>
       </c>
       <c r="E403" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -11306,7 +11310,7 @@
         <v>1130</v>
       </c>
       <c r="E404" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -11323,7 +11327,7 @@
         <v>1130</v>
       </c>
       <c r="E405" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -11340,7 +11344,7 @@
         <v>1130</v>
       </c>
       <c r="E406" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -11357,15 +11361,57 @@
         <v>1130</v>
       </c>
       <c r="E407" t="s">
-        <v>1055</v>
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="408" s="1" customFormat="1" spans="1:5">
+      <c r="A408" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E$1:E$1048576">
-    <cfRule type="containsBlanks" priority="2">
+  <conditionalFormatting sqref="C1:C407 C409:C1048576">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="between" text="绵阳">
+      <formula>NOT(ISERROR(SEARCH("绵阳",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="南京">
+      <formula>NOT(ISERROR(SEARCH("南京",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D407 D409:D1048576">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="between" text="湛江">
+      <formula>NOT(ISERROR(SEARCH("湛江",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E318 E320:E407 E409:E1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="绵阳">
+      <formula>NOT(ISERROR(SEARCH("绵阳",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="绵阳">
+      <formula>NOT(ISERROR(SEARCH("绵阳",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="between" text="南京">
+      <formula>NOT(ISERROR(SEARCH("南京",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="between" text="湛江">
+      <formula>NOT(ISERROR(SEARCH("湛江",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="3" priority="8">
       <formula>LEN(TRIM(E1))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" priority="9">
       <formula>LEN(TRIM(E1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11377,3336 +11423,1278 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A407"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="48.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="23.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="13.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <f>RANK(B2,B:B)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C26" si="0">RANK(B3,B:B)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>856</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>969</v>
+      </c>
+      <c r="B8">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="containsBlanks" priority="2">
-      <formula>LEN(TRIM(A1))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D142"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="26.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="12.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="13.7272727272727" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" spans="2:4">
-      <c r="B1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <f>RANK(C2,C:C)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>794</v>
-      </c>
-      <c r="C3">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D16" si="0">RANK(C3,C:C)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C6">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>856</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>966</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>29</v>
+      <c r="B10">
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
       <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>113</v>
       </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
       <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>734</v>
       </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
       <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>160</v>
       </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
       <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>281</v>
       </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
       <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
-        <v>1063</v>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>206</v>
       </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
       <c r="C17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>645</v>
+      </c>
+      <c r="B18">
         <v>6</v>
       </c>
-      <c r="D17">
-        <f>RANK(C17,C:C)</f>
+      <c r="C18">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>645</v>
-      </c>
-      <c r="C18">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>913</v>
+      </c>
+      <c r="B19">
         <v>6</v>
       </c>
-      <c r="D18">
-        <f>RANK(C18,C:C)</f>
+      <c r="C19">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
-        <v>910</v>
-      </c>
-      <c r="C19">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B20">
         <v>6</v>
       </c>
-      <c r="D19">
-        <f>RANK(C19,C:C)</f>
+      <c r="C20">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <f>RANK(C20,C:C)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>371</v>
       </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
       <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ref="D21:D26" si="1">RANK(C21,C:C)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>399</v>
       </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
       <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>672</v>
       </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
       <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>762</v>
       </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
       <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" t="s">
-        <v>1075</v>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
-        <v>1055</v>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>103</v>
       </c>
-      <c r="C27">
+      <c r="B27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>447</v>
       </c>
-      <c r="C28">
+      <c r="B28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>581</v>
       </c>
-      <c r="C29">
+      <c r="B29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
-      <c r="B30" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>720</v>
       </c>
-      <c r="C30">
+      <c r="B30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
-      <c r="B31" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C31">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>140</v>
       </c>
-      <c r="C32">
+      <c r="B32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>224</v>
       </c>
-      <c r="C33">
+      <c r="B33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>553</v>
       </c>
-      <c r="C34">
+      <c r="B34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>567</v>
       </c>
-      <c r="C35">
+      <c r="B35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>630</v>
       </c>
-      <c r="C36">
+      <c r="B36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" t="s">
-        <v>958</v>
-      </c>
-      <c r="C37">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>961</v>
+      </c>
+      <c r="B37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>131</v>
       </c>
-      <c r="C40">
+      <c r="B39">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>301</v>
       </c>
-      <c r="C41">
+      <c r="B40">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>242</v>
       </c>
-      <c r="C42">
+      <c r="B41">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>232</v>
       </c>
-      <c r="C43">
+      <c r="B42">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
-      <c r="B44" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>415</v>
       </c>
-      <c r="C44">
+      <c r="B43">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>425</v>
       </c>
-      <c r="C45">
+      <c r="B44">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>536</v>
       </c>
-      <c r="C46">
+      <c r="B45">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>511</v>
       </c>
-      <c r="C47">
+      <c r="B46">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>532</v>
       </c>
-      <c r="C48">
+      <c r="B47">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>519</v>
       </c>
-      <c r="C49">
+      <c r="B48">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="B50" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>575</v>
       </c>
-      <c r="C50">
+      <c r="B49">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
-      <c r="B51" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>597</v>
       </c>
-      <c r="C51">
+      <c r="B50">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
-      <c r="B52" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>663</v>
       </c>
-      <c r="C52">
+      <c r="B51">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>709</v>
       </c>
-      <c r="C53">
+      <c r="B52">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>752</v>
       </c>
-      <c r="C54">
+      <c r="B53">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="B55" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>830</v>
       </c>
-      <c r="C55">
+      <c r="B54">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56" t="s">
-        <v>885</v>
-      </c>
-      <c r="C56">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>888</v>
+      </c>
+      <c r="B55">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
-      <c r="B57" t="s">
-        <v>893</v>
-      </c>
-      <c r="C57">
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>896</v>
+      </c>
+      <c r="B56">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
-      <c r="B58" t="s">
-        <v>920</v>
-      </c>
-      <c r="C58">
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>923</v>
+      </c>
+      <c r="B57">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
-      <c r="B59" t="s">
-        <v>904</v>
-      </c>
-      <c r="C59">
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>907</v>
+      </c>
+      <c r="B58">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
-      <c r="B60" t="s">
-        <v>914</v>
-      </c>
-      <c r="C60">
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>917</v>
+      </c>
+      <c r="B59">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="B61" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C61">
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B60">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
-      <c r="B62" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C62">
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>997</v>
+      </c>
+      <c r="B61">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
-      <c r="B63" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C63">
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B62">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>21</v>
       </c>
-      <c r="C64">
+      <c r="B63">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2"/>
-      <c r="B65" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>17</v>
       </c>
-      <c r="C65">
+      <c r="B64">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2"/>
-      <c r="B66" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>25</v>
       </c>
-      <c r="C66">
+      <c r="B65">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2"/>
-      <c r="B67" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>13</v>
       </c>
-      <c r="C67">
+      <c r="B66">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2"/>
-      <c r="B68" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>9</v>
       </c>
-      <c r="C68">
+      <c r="B67">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
-      <c r="B69" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>147</v>
       </c>
-      <c r="C69">
+      <c r="B68">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
-      <c r="B70" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>99</v>
       </c>
-      <c r="C70">
+      <c r="B69">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
-      <c r="B71" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>317</v>
       </c>
-      <c r="C71">
+      <c r="B70">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
-      <c r="B72" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>216</v>
       </c>
-      <c r="C72">
+      <c r="B71">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
-      <c r="B73" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>297</v>
       </c>
-      <c r="C73">
+      <c r="B72">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
-      <c r="B74" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>220</v>
       </c>
-      <c r="C74">
+      <c r="B73">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
-      <c r="B75" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>307</v>
       </c>
-      <c r="C75">
+      <c r="B74">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
-      <c r="B76" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>238</v>
       </c>
-      <c r="C76">
+      <c r="B75">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
-      <c r="B77" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>383</v>
       </c>
-      <c r="C77">
+      <c r="B76">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
-      <c r="B78" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>391</v>
       </c>
-      <c r="C78">
+      <c r="B77">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
-      <c r="B79" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>387</v>
       </c>
-      <c r="C79">
+      <c r="B78">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
-      <c r="B80" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>395</v>
       </c>
-      <c r="C80">
+      <c r="B79">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
-      <c r="B81" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>421</v>
       </c>
-      <c r="C81">
+      <c r="B80">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
-      <c r="B82" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>411</v>
       </c>
-      <c r="C82">
+      <c r="B81">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
-      <c r="B83" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>429</v>
       </c>
-      <c r="C83">
+      <c r="B82">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
-      <c r="B84" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>433</v>
       </c>
-      <c r="C84">
+      <c r="B83">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
-      <c r="B85" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>437</v>
       </c>
-      <c r="C85">
+      <c r="B84">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
-      <c r="B86" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>440</v>
       </c>
-      <c r="C86">
+      <c r="B85">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
-      <c r="B87" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>461</v>
       </c>
-      <c r="C87">
+      <c r="B86">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
-      <c r="B88" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>477</v>
       </c>
-      <c r="C88">
+      <c r="B87">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
-      <c r="B89" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>469</v>
       </c>
-      <c r="C89">
+      <c r="B88">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
-      <c r="B90" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>473</v>
       </c>
-      <c r="C90">
+      <c r="B89">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
-      <c r="B91" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>465</v>
       </c>
-      <c r="C91">
+      <c r="B90">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
-      <c r="B92" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>457</v>
       </c>
-      <c r="C92">
+      <c r="B91">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
-      <c r="B93" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>528</v>
       </c>
-      <c r="C93">
+      <c r="B92">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
-      <c r="B94" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>525</v>
       </c>
-      <c r="C94">
+      <c r="B93">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
-      <c r="B95" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>546</v>
       </c>
-      <c r="C95">
+      <c r="B94">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
-      <c r="B96" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>560</v>
       </c>
-      <c r="C96">
+      <c r="B95">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
-      <c r="B97" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>515</v>
       </c>
-      <c r="C97">
+      <c r="B96">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
-      <c r="B98" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>589</v>
       </c>
-      <c r="C98">
+      <c r="B97">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
-      <c r="B99" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>593</v>
       </c>
-      <c r="C99">
+      <c r="B98">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
-      <c r="B100" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>730</v>
       </c>
-      <c r="C100">
+      <c r="B99">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
-      <c r="B101" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>622</v>
       </c>
-      <c r="C101">
+      <c r="B100">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
-      <c r="B102" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>659</v>
       </c>
-      <c r="C102">
+      <c r="B101">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
-      <c r="B103" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>641</v>
       </c>
-      <c r="C103">
+      <c r="B102">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
-      <c r="B104" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>626</v>
       </c>
-      <c r="C104">
+      <c r="B103">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
-      <c r="B105" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>634</v>
       </c>
-      <c r="C105">
+      <c r="B104">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
-      <c r="B106" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>697</v>
       </c>
-      <c r="C106">
+      <c r="B105">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
-      <c r="B107" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>713</v>
       </c>
-      <c r="C107">
+      <c r="B106">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
-      <c r="B108" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>685</v>
       </c>
-      <c r="C108">
+      <c r="B107">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
-      <c r="B109" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>689</v>
       </c>
-      <c r="C109">
+      <c r="B108">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
-      <c r="B110" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>705</v>
       </c>
-      <c r="C110">
+      <c r="B109">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
-      <c r="B111" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>701</v>
       </c>
-      <c r="C111">
+      <c r="B110">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
-      <c r="B112" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>693</v>
       </c>
-      <c r="C112">
+      <c r="B111">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
-      <c r="B113" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>758</v>
       </c>
-      <c r="C113">
+      <c r="B112">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
-      <c r="B114" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>606</v>
       </c>
-      <c r="C114">
+      <c r="B113">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:3">
-      <c r="B115" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>618</v>
       </c>
-      <c r="C115">
+      <c r="B114">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:3">
-      <c r="B116" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>610</v>
       </c>
-      <c r="C116">
+      <c r="B115">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:3">
-      <c r="B117" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>614</v>
       </c>
-      <c r="C117">
+      <c r="B116">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
-      <c r="B118" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>786</v>
       </c>
-      <c r="C118">
+      <c r="B117">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
-      <c r="B119" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>782</v>
       </c>
-      <c r="C119">
+      <c r="B118">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:3">
-      <c r="B120" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>790</v>
       </c>
-      <c r="C120">
+      <c r="B119">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:3">
-      <c r="B121" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>778</v>
       </c>
-      <c r="C121">
+      <c r="B120">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:3">
-      <c r="B122" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>774</v>
       </c>
-      <c r="C122">
+      <c r="B121">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:3">
-      <c r="B123" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>836</v>
       </c>
-      <c r="C123">
+      <c r="B122">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
-      <c r="B124" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
         <v>852</v>
       </c>
-      <c r="C124">
+      <c r="B123">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
-      <c r="B125" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>848</v>
       </c>
-      <c r="C125">
+      <c r="B124">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:3">
-      <c r="B126" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>840</v>
       </c>
-      <c r="C126">
+      <c r="B125">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:3">
-      <c r="B127" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>844</v>
       </c>
-      <c r="C127">
+      <c r="B126">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:3">
-      <c r="B128" t="s">
-        <v>924</v>
-      </c>
-      <c r="C128">
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>927</v>
+      </c>
+      <c r="B127">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
-      <c r="B129" t="s">
-        <v>881</v>
-      </c>
-      <c r="C129">
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>884</v>
+      </c>
+      <c r="B128">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
-      <c r="B130" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C130">
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>900</v>
+      </c>
+      <c r="B129">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:3">
-      <c r="B131" t="s">
-        <v>928</v>
-      </c>
-      <c r="C131">
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>931</v>
+      </c>
+      <c r="B130">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
-      <c r="B132" t="s">
-        <v>889</v>
-      </c>
-      <c r="C132">
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>892</v>
+      </c>
+      <c r="B131">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:3">
-      <c r="B133" t="s">
-        <v>877</v>
-      </c>
-      <c r="C133">
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>880</v>
+      </c>
+      <c r="B132">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
-      <c r="B134" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C134">
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B133">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
-      <c r="B135" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C135">
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B134">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
-      <c r="B136" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C136">
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B135">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:3">
-      <c r="B137" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C137">
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B136">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
-      <c r="B138" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C138">
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B137">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
-      <c r="B139" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C139">
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B138">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:3">
-      <c r="B140" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C140">
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B139">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
-      <c r="B141" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C141">
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B140">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:3">
-      <c r="B142" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C142">
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B141">
         <v>1</v>
       </c>
     </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B1:C141">
-    <sortCondition ref="C1:C141" descending="1"/>
+  <sortState ref="A1:B143">
+    <sortCondition ref="B1" descending="1"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A64:A68"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B2:C1048576">
+  <conditionalFormatting sqref="A2:B1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
